--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H2">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N2">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q2">
-        <v>22.3356363608148</v>
+        <v>40.75886425893056</v>
       </c>
       <c r="R2">
-        <v>22.3356363608148</v>
+        <v>366.829778330375</v>
       </c>
       <c r="S2">
-        <v>0.005653074651196442</v>
+        <v>0.00896294882857916</v>
       </c>
       <c r="T2">
-        <v>0.005653074651196442</v>
+        <v>0.008962948828579162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H3">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N3">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q3">
-        <v>1671.209574356898</v>
+        <v>2042.01215081687</v>
       </c>
       <c r="R3">
-        <v>1671.209574356898</v>
+        <v>18378.10935735183</v>
       </c>
       <c r="S3">
-        <v>0.4229775381823567</v>
+        <v>0.4490422083117361</v>
       </c>
       <c r="T3">
-        <v>0.4229775381823567</v>
+        <v>0.4490422083117362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H4">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N4">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q4">
-        <v>2.810494831564629</v>
+        <v>3.563345291133334</v>
       </c>
       <c r="R4">
-        <v>2.810494831564629</v>
+        <v>32.07010762020001</v>
       </c>
       <c r="S4">
-        <v>0.0007113268157208229</v>
+        <v>0.0007835861495082931</v>
       </c>
       <c r="T4">
-        <v>0.0007113268157208229</v>
+        <v>0.0007835861495082932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H5">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I5">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J5">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N5">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q5">
-        <v>289.2728476429725</v>
+        <v>381.8480353915973</v>
       </c>
       <c r="R5">
-        <v>289.2728476429725</v>
+        <v>3436.632318524375</v>
       </c>
       <c r="S5">
-        <v>0.07321398754318918</v>
+        <v>0.08396908166444995</v>
       </c>
       <c r="T5">
-        <v>0.07321398754318918</v>
+        <v>0.08396908166444995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H6">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N6">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q6">
-        <v>15.46176756795596</v>
+        <v>23.53150262561334</v>
       </c>
       <c r="R6">
-        <v>15.46176756795596</v>
+        <v>211.78352363052</v>
       </c>
       <c r="S6">
-        <v>0.003913321514064733</v>
+        <v>0.005174620483855515</v>
       </c>
       <c r="T6">
-        <v>0.003913321514064733</v>
+        <v>0.005174620483855516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H7">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N7">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q7">
-        <v>1156.88908874707</v>
+        <v>1178.924269901683</v>
       </c>
       <c r="R7">
-        <v>1156.88908874707</v>
+        <v>10610.31842911514</v>
       </c>
       <c r="S7">
-        <v>0.2928047482593971</v>
+        <v>0.2592476040738452</v>
       </c>
       <c r="T7">
-        <v>0.2928047482593971</v>
+        <v>0.2592476040738452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H8">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I8">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J8">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N8">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q8">
-        <v>1.945555395629148</v>
+        <v>2.057242531136001</v>
       </c>
       <c r="R8">
-        <v>1.945555395629148</v>
+        <v>18.515182780224</v>
       </c>
       <c r="S8">
-        <v>0.0004924135454150268</v>
+        <v>0.0004523913968115178</v>
       </c>
       <c r="T8">
-        <v>0.0004924135454150268</v>
+        <v>0.0004523913968115178</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H9">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I9">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J9">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N9">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q9">
-        <v>200.2481353888416</v>
+        <v>220.4540830755333</v>
       </c>
       <c r="R9">
-        <v>200.2481353888416</v>
+        <v>1984.0867476798</v>
       </c>
       <c r="S9">
-        <v>0.05068213145258772</v>
+        <v>0.04847825624150965</v>
       </c>
       <c r="T9">
-        <v>0.05068213145258772</v>
+        <v>0.04847825624150965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H10">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N10">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q10">
-        <v>2.361298910274875</v>
+        <v>3.724331657092778</v>
       </c>
       <c r="R10">
-        <v>2.361298910274875</v>
+        <v>33.518984913835</v>
       </c>
       <c r="S10">
-        <v>0.0005976368346053124</v>
+        <v>0.0008189873459456364</v>
       </c>
       <c r="T10">
-        <v>0.0005976368346053124</v>
+        <v>0.0008189873459456366</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H11">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I11">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J11">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N11">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q11">
-        <v>176.6784381255893</v>
+        <v>186.5883810977152</v>
       </c>
       <c r="R11">
-        <v>176.6784381255893</v>
+        <v>1679.295429879437</v>
       </c>
       <c r="S11">
-        <v>0.04471672012591418</v>
+        <v>0.04103112641122766</v>
       </c>
       <c r="T11">
-        <v>0.04471672012591418</v>
+        <v>0.04103112641122766</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H12">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I12">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J12">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N12">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q12">
-        <v>0.2971224224777194</v>
+        <v>0.3255998397946667</v>
       </c>
       <c r="R12">
-        <v>0.2971224224777194</v>
+        <v>2.930398558152</v>
       </c>
       <c r="S12">
-        <v>7.5200688607092E-05</v>
+        <v>7.160000053322739E-05</v>
       </c>
       <c r="T12">
-        <v>7.5200688607092E-05</v>
+        <v>7.160000053322739E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H13">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I13">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J13">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N13">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q13">
-        <v>30.58160729684009</v>
+        <v>34.89127462858611</v>
       </c>
       <c r="R13">
-        <v>30.58160729684009</v>
+        <v>314.021471657275</v>
       </c>
       <c r="S13">
-        <v>0.007740102238855764</v>
+        <v>0.007672655132715053</v>
       </c>
       <c r="T13">
-        <v>0.007740102238855764</v>
+        <v>0.007672655132715053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H14">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I14">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J14">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N14">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q14">
-        <v>4.285378211979287</v>
+        <v>7.081158919956667</v>
       </c>
       <c r="R14">
-        <v>4.285378211979287</v>
+        <v>63.73043027961</v>
       </c>
       <c r="S14">
-        <v>0.001084614852676886</v>
+        <v>0.001557159803163607</v>
       </c>
       <c r="T14">
-        <v>0.001084614852676886</v>
+        <v>0.001557159803163607</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H15">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I15">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J15">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N15">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q15">
-        <v>320.6429842386174</v>
+        <v>354.7648546965713</v>
       </c>
       <c r="R15">
-        <v>320.6429842386174</v>
+        <v>3192.883692269142</v>
       </c>
       <c r="S15">
-        <v>0.08115366390291572</v>
+        <v>0.07801344067449049</v>
       </c>
       <c r="T15">
-        <v>0.08115366390291572</v>
+        <v>0.07801344067449051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H16">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I16">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J16">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N16">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q16">
-        <v>0.5392294681694081</v>
+        <v>0.6190705936480001</v>
       </c>
       <c r="R16">
-        <v>0.5392294681694081</v>
+        <v>5.571635342832001</v>
       </c>
       <c r="S16">
-        <v>0.0001364771698662906</v>
+        <v>0.000136134756280148</v>
       </c>
       <c r="T16">
-        <v>0.0001364771698662906</v>
+        <v>0.0001361347562801481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H17">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I17">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J17">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N17">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q17">
-        <v>55.50070472947009</v>
+        <v>66.33959682251667</v>
       </c>
       <c r="R17">
-        <v>55.50070472947009</v>
+        <v>597.05637140265</v>
       </c>
       <c r="S17">
-        <v>0.01404704222263136</v>
+        <v>0.01458819872534865</v>
       </c>
       <c r="T17">
-        <v>0.01404704222263136</v>
+        <v>0.01458819872534865</v>
       </c>
     </row>
   </sheetData>
